--- a/meta/program/BlancoValueObjectKtClassStructure.xlsx
+++ b/meta/program/BlancoValueObjectKtClassStructure.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoValueObjectKt/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B7F2924-BDB5-2340-AF22-3E65940EF694}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39246E15-F72A-234D-9B4C-07EFFDC1FBED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="560" windowWidth="28300" windowHeight="17440" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -47,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="84">
   <si>
     <t>バリューオブジェクト定義書</t>
   </si>
@@ -412,6 +414,20 @@
   </si>
   <si>
     <t>java.lang.Boolean</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>generic</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>クラスの総称型を指定します。</t>
+    <rPh sb="4" eb="7">
+      <t xml:space="preserve">ソウショウガタ </t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t xml:space="preserve">シテイシマス。 </t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -824,7 +840,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -931,49 +947,55 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1386,10 +1408,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G46"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1584,24 +1606,24 @@
       <c r="G18"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="52" t="s">
+      <c r="A19" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="53" t="s">
+      <c r="B19" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="54"/>
-      <c r="D19" s="54"/>
-      <c r="E19" s="50"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="53"/>
       <c r="F19"/>
       <c r="G19"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="52"/>
-      <c r="B20" s="53"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="50"/>
+      <c r="A20" s="46"/>
+      <c r="B20" s="48"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="53"/>
       <c r="F20"/>
       <c r="G20"/>
     </row>
@@ -1643,34 +1665,34 @@
       <c r="G24"/>
     </row>
     <row r="25" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A25" s="52" t="s">
+      <c r="A25" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="52" t="s">
+      <c r="B25" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="51" t="s">
+      <c r="C25" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="51" t="s">
+      <c r="D25" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="51" t="s">
+      <c r="E25" s="47" t="s">
         <v>6</v>
       </c>
       <c r="F25" s="24"/>
       <c r="G25"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="52"/>
-      <c r="B26" s="52"/>
-      <c r="C26" s="51"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="51"/>
+      <c r="A26" s="46"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="47"/>
       <c r="F26" s="9"/>
       <c r="G26"/>
     </row>
-    <row r="27" spans="1:7" ht="30">
+    <row r="27" spans="1:7" ht="15">
       <c r="A27" s="18">
         <v>1</v>
       </c>
@@ -1681,13 +1703,13 @@
         <v>33</v>
       </c>
       <c r="D27" s="41"/>
-      <c r="E27" s="41" t="s">
+      <c r="E27" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="F27" s="42"/>
+      <c r="F27" s="56"/>
       <c r="G27"/>
     </row>
-    <row r="28" spans="1:7" ht="30">
+    <row r="28" spans="1:7" ht="15">
       <c r="A28" s="38">
         <f>A27+1</f>
         <v>2</v>
@@ -1699,57 +1721,55 @@
         <v>33</v>
       </c>
       <c r="D28" s="40"/>
-      <c r="E28" s="40" t="s">
+      <c r="E28" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="F28" s="43"/>
+      <c r="F28" s="58"/>
       <c r="G28"/>
     </row>
     <row r="29" spans="1:7" ht="15">
       <c r="A29" s="38">
-        <f t="shared" ref="A29:A44" si="0">A28+1</f>
+        <f t="shared" ref="A29:A45" si="0">A28+1</f>
         <v>3</v>
       </c>
       <c r="B29" s="39" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="C29" s="40" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="D29" s="40"/>
-      <c r="E29" s="40" t="s">
-        <v>60</v>
-      </c>
-      <c r="F29" s="43"/>
+      <c r="E29" s="57" t="s">
+        <v>83</v>
+      </c>
+      <c r="F29" s="58"/>
       <c r="G29"/>
     </row>
-    <row r="30" spans="1:7" ht="26.25" customHeight="1">
+    <row r="30" spans="1:7" ht="15">
       <c r="A30" s="38">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B30" s="39" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="C30" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="D30" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="E30" s="47" t="s">
-        <v>59</v>
-      </c>
-      <c r="F30" s="48"/>
+        <v>33</v>
+      </c>
+      <c r="D30" s="40"/>
+      <c r="E30" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="F30" s="42"/>
       <c r="G30"/>
     </row>
-    <row r="31" spans="1:7" ht="15">
+    <row r="31" spans="1:7" ht="26.25" customHeight="1">
       <c r="A31" s="38">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B31" s="39" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C31" s="40" t="s">
         <v>56</v>
@@ -1757,16 +1777,19 @@
       <c r="D31" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="E31" s="47" t="s">
-        <v>64</v>
-      </c>
-      <c r="F31" s="48"/>
+      <c r="E31" s="50" t="s">
+        <v>59</v>
+      </c>
+      <c r="F31" s="51"/>
       <c r="G31"/>
     </row>
     <row r="32" spans="1:7" ht="15">
-      <c r="A32" s="38"/>
+      <c r="A32" s="38">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
       <c r="B32" s="39" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C32" s="40" t="s">
         <v>56</v>
@@ -1774,53 +1797,59 @@
       <c r="D32" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="E32" s="47" t="s">
-        <v>67</v>
-      </c>
-      <c r="F32" s="48"/>
+      <c r="E32" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="F32" s="51"/>
       <c r="G32"/>
     </row>
     <row r="33" spans="1:7" ht="15">
       <c r="A33" s="38">
-        <f>A31+1</f>
-        <v>6</v>
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="B33" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="D33" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="E33" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="F33" s="51"/>
+      <c r="G33"/>
+    </row>
+    <row r="34" spans="1:7" ht="15">
+      <c r="A34" s="38">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B34" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="C33" s="40" t="s">
+      <c r="C34" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="D33" s="40" t="s">
+      <c r="D34" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="E33" s="47" t="s">
+      <c r="E34" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="F33" s="48"/>
-      <c r="G33"/>
-    </row>
-    <row r="34" spans="1:7" ht="15">
-      <c r="A34" s="38"/>
-      <c r="B34" s="39" t="s">
+      <c r="F34" s="51"/>
+      <c r="G34"/>
+    </row>
+    <row r="35" spans="1:7" ht="15">
+      <c r="A35" s="38">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B35" s="39" t="s">
         <v>79</v>
-      </c>
-      <c r="C34" s="40" t="s">
-        <v>81</v>
-      </c>
-      <c r="D34" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="E34" s="47" t="s">
-        <v>80</v>
-      </c>
-      <c r="F34" s="48"/>
-      <c r="G34"/>
-    </row>
-    <row r="35" spans="1:7" ht="15">
-      <c r="A35" s="38"/>
-      <c r="B35" s="39" t="s">
-        <v>73</v>
       </c>
       <c r="C35" s="40" t="s">
         <v>81</v>
@@ -1828,59 +1857,59 @@
       <c r="D35" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="E35" s="47" t="s">
-        <v>74</v>
-      </c>
-      <c r="F35" s="48"/>
+      <c r="E35" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="F35" s="51"/>
       <c r="G35"/>
     </row>
     <row r="36" spans="1:7" ht="15">
       <c r="A36" s="38">
-        <f>A33+1</f>
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="B36" s="39" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="C36" s="40" t="s">
         <v>81</v>
       </c>
       <c r="D36" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="E36" s="47" t="s">
-        <v>43</v>
-      </c>
-      <c r="F36" s="48"/>
+        <v>45</v>
+      </c>
+      <c r="E36" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="F36" s="51"/>
       <c r="G36"/>
     </row>
     <row r="37" spans="1:7" ht="15">
       <c r="A37" s="38">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B37" s="39" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C37" s="40" t="s">
         <v>81</v>
       </c>
       <c r="D37" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="E37" s="47" t="s">
-        <v>46</v>
-      </c>
-      <c r="F37" s="48"/>
+        <v>42</v>
+      </c>
+      <c r="E37" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" s="51"/>
       <c r="G37"/>
     </row>
     <row r="38" spans="1:7" ht="15">
       <c r="A38" s="38">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B38" s="39" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C38" s="40" t="s">
         <v>81</v>
@@ -1888,19 +1917,19 @@
       <c r="D38" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="E38" s="47" t="s">
-        <v>48</v>
-      </c>
-      <c r="F38" s="48"/>
+      <c r="E38" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="F38" s="51"/>
       <c r="G38"/>
     </row>
     <row r="39" spans="1:7" ht="15">
       <c r="A39" s="38">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B39" s="39" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C39" s="40" t="s">
         <v>81</v>
@@ -1908,122 +1937,160 @@
       <c r="D39" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="E39" s="47" t="s">
-        <v>68</v>
-      </c>
-      <c r="F39" s="48"/>
+      <c r="E39" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="F39" s="51"/>
       <c r="G39"/>
     </row>
     <row r="40" spans="1:7" ht="15">
       <c r="A40" s="38">
-        <f>A39+1</f>
-        <v>11</v>
+        <f t="shared" si="0"/>
+        <v>14</v>
       </c>
       <c r="B40" s="39" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C40" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="D40" s="40"/>
-      <c r="E40" s="47" t="s">
-        <v>51</v>
-      </c>
-      <c r="F40" s="48"/>
+        <v>81</v>
+      </c>
+      <c r="D40" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="E40" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="F40" s="51"/>
       <c r="G40"/>
     </row>
-    <row r="41" spans="1:7" ht="45" customHeight="1">
+    <row r="41" spans="1:7" ht="15">
       <c r="A41" s="38">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B41" s="39" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C41" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="D41" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="E41" s="47" t="s">
-        <v>53</v>
-      </c>
-      <c r="F41" s="49"/>
+        <v>33</v>
+      </c>
+      <c r="D41" s="40"/>
+      <c r="E41" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="F41" s="51"/>
       <c r="G41"/>
     </row>
-    <row r="42" spans="1:7" ht="45">
+    <row r="42" spans="1:7" ht="45" customHeight="1">
       <c r="A42" s="38">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B42" s="39" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C42" s="40" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="D42" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="E42" s="47" t="s">
-        <v>55</v>
-      </c>
-      <c r="F42" s="49"/>
+        <v>57</v>
+      </c>
+      <c r="E42" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="F42" s="52"/>
       <c r="G42"/>
     </row>
-    <row r="43" spans="1:7" ht="15">
+    <row r="43" spans="1:7" ht="45">
       <c r="A43" s="38">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B43" s="39" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C43" s="40" t="s">
-        <v>63</v>
-      </c>
-      <c r="D43" s="40"/>
-      <c r="E43" s="47" t="s">
-        <v>62</v>
-      </c>
-      <c r="F43" s="49"/>
+        <v>71</v>
+      </c>
+      <c r="D43" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="E43" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="F43" s="52"/>
       <c r="G43"/>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" ht="15">
       <c r="A44" s="38">
         <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B44" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="B44" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="C44" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="D44" s="40"/>
+      <c r="E44" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="F44" s="52"/>
+      <c r="G44"/>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="38">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B45" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="C44" s="56" t="s">
+      <c r="C45" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="D44" s="56" t="s">
+      <c r="D45" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="E44" s="47" t="s">
+      <c r="E45" s="50" t="s">
         <v>78</v>
       </c>
-      <c r="F44" s="48"/>
-      <c r="G44"/>
-    </row>
-    <row r="45" spans="1:7" ht="14" customHeight="1">
-      <c r="A45" s="21"/>
-      <c r="B45" s="22"/>
-      <c r="C45" s="44"/>
-      <c r="D45" s="44"/>
-      <c r="E45" s="45"/>
-      <c r="F45" s="46"/>
+      <c r="F45" s="51"/>
       <c r="G45"/>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" ht="14" customHeight="1">
+      <c r="A46" s="21"/>
+      <c r="B46" s="22"/>
+      <c r="C46" s="43"/>
+      <c r="D46" s="43"/>
+      <c r="E46" s="54"/>
+      <c r="F46" s="55"/>
       <c r="G46"/>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="G47"/>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E35:F35"/>
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="B25:B26"/>
     <mergeCell ref="C25:C26"/>
@@ -2032,28 +2099,10 @@
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E43:F43"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations disablePrompts="1" count="6">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D59" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D60" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>型</formula1>
       <formula2>0</formula2>
     </dataValidation>

--- a/meta/program/BlancoValueObjectKtClassStructure.xlsx
+++ b/meta/program/BlancoValueObjectKtClassStructure.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoValueObjectKt/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39246E15-F72A-234D-9B4C-07EFFDC1FBED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4230F327-F5BE-3141-8946-58DD5D2C836E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="560" windowWidth="28300" windowHeight="17440" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
     <definedName name="項目型">#REF!</definedName>
     <definedName name="必須">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="88">
   <si>
     <t>バリューオブジェクト定義書</t>
   </si>
@@ -427,6 +427,25 @@
     </rPh>
     <rPh sb="8" eb="10">
       <t xml:space="preserve">シテイシマス。 </t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>delegateList</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>java.util.List&lt;blanco.valueobjectkt.valueobject.BlancoValueObjectKtDelegateStructure&gt;</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>new java.util.ArrayList&lt;blanco.valueobjectkt.valueobject.BlancoValueObjectKtDelegateStructure&gt;()</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>委譲を記憶するリストを指定します。</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">イジョウ </t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -959,44 +978,44 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1408,10 +1427,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="E45" sqref="E45:F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1606,24 +1625,24 @@
       <c r="G18"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="46" t="s">
+      <c r="A19" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="48" t="s">
+      <c r="B19" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="49"/>
-      <c r="D19" s="49"/>
-      <c r="E19" s="53"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="54"/>
       <c r="F19"/>
       <c r="G19"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="46"/>
-      <c r="B20" s="48"/>
-      <c r="C20" s="49"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="53"/>
+      <c r="A20" s="56"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="54"/>
       <c r="F20"/>
       <c r="G20"/>
     </row>
@@ -1665,30 +1684,30 @@
       <c r="G24"/>
     </row>
     <row r="25" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A25" s="46" t="s">
+      <c r="A25" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="46" t="s">
+      <c r="B25" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="47" t="s">
+      <c r="C25" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="47" t="s">
+      <c r="D25" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="47" t="s">
+      <c r="E25" s="55" t="s">
         <v>6</v>
       </c>
       <c r="F25" s="24"/>
       <c r="G25"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="46"/>
-      <c r="B26" s="46"/>
-      <c r="C26" s="47"/>
-      <c r="D26" s="47"/>
-      <c r="E26" s="47"/>
+      <c r="A26" s="56"/>
+      <c r="B26" s="56"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="55"/>
       <c r="F26" s="9"/>
       <c r="G26"/>
     </row>
@@ -1706,7 +1725,7 @@
       <c r="E27" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="F27" s="56"/>
+      <c r="F27" s="46"/>
       <c r="G27"/>
     </row>
     <row r="28" spans="1:7" ht="15">
@@ -1721,15 +1740,15 @@
         <v>33</v>
       </c>
       <c r="D28" s="40"/>
-      <c r="E28" s="57" t="s">
+      <c r="E28" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="F28" s="58"/>
+      <c r="F28" s="48"/>
       <c r="G28"/>
     </row>
     <row r="29" spans="1:7" ht="15">
       <c r="A29" s="38">
-        <f t="shared" ref="A29:A45" si="0">A28+1</f>
+        <f t="shared" ref="A29:A46" si="0">A28+1</f>
         <v>3</v>
       </c>
       <c r="B29" s="39" t="s">
@@ -1739,10 +1758,10 @@
         <v>63</v>
       </c>
       <c r="D29" s="40"/>
-      <c r="E29" s="57" t="s">
+      <c r="E29" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="F29" s="58"/>
+      <c r="F29" s="48"/>
       <c r="G29"/>
     </row>
     <row r="30" spans="1:7" ht="15">
@@ -1777,10 +1796,10 @@
       <c r="D31" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="E31" s="50" t="s">
+      <c r="E31" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="F31" s="51"/>
+      <c r="F31" s="52"/>
       <c r="G31"/>
     </row>
     <row r="32" spans="1:7" ht="15">
@@ -1797,10 +1816,10 @@
       <c r="D32" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="E32" s="50" t="s">
+      <c r="E32" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="F32" s="51"/>
+      <c r="F32" s="52"/>
       <c r="G32"/>
     </row>
     <row r="33" spans="1:7" ht="15">
@@ -1817,10 +1836,10 @@
       <c r="D33" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="E33" s="50" t="s">
+      <c r="E33" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="F33" s="51"/>
+      <c r="F33" s="52"/>
       <c r="G33"/>
     </row>
     <row r="34" spans="1:7" ht="15">
@@ -1837,10 +1856,10 @@
       <c r="D34" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="E34" s="50" t="s">
+      <c r="E34" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="F34" s="51"/>
+      <c r="F34" s="52"/>
       <c r="G34"/>
     </row>
     <row r="35" spans="1:7" ht="15">
@@ -1857,10 +1876,10 @@
       <c r="D35" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="E35" s="50" t="s">
+      <c r="E35" s="51" t="s">
         <v>80</v>
       </c>
-      <c r="F35" s="51"/>
+      <c r="F35" s="52"/>
       <c r="G35"/>
     </row>
     <row r="36" spans="1:7" ht="15">
@@ -1877,10 +1896,10 @@
       <c r="D36" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="E36" s="50" t="s">
+      <c r="E36" s="51" t="s">
         <v>74</v>
       </c>
-      <c r="F36" s="51"/>
+      <c r="F36" s="52"/>
       <c r="G36"/>
     </row>
     <row r="37" spans="1:7" ht="15">
@@ -1897,10 +1916,10 @@
       <c r="D37" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="E37" s="50" t="s">
+      <c r="E37" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="F37" s="51"/>
+      <c r="F37" s="52"/>
       <c r="G37"/>
     </row>
     <row r="38" spans="1:7" ht="15">
@@ -1917,10 +1936,10 @@
       <c r="D38" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="E38" s="50" t="s">
+      <c r="E38" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="F38" s="51"/>
+      <c r="F38" s="52"/>
       <c r="G38"/>
     </row>
     <row r="39" spans="1:7" ht="15">
@@ -1937,10 +1956,10 @@
       <c r="D39" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="E39" s="50" t="s">
+      <c r="E39" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="F39" s="51"/>
+      <c r="F39" s="52"/>
       <c r="G39"/>
     </row>
     <row r="40" spans="1:7" ht="15">
@@ -1957,10 +1976,10 @@
       <c r="D40" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="E40" s="50" t="s">
+      <c r="E40" s="51" t="s">
         <v>68</v>
       </c>
-      <c r="F40" s="51"/>
+      <c r="F40" s="52"/>
       <c r="G40"/>
     </row>
     <row r="41" spans="1:7" ht="15">
@@ -1975,10 +1994,10 @@
         <v>33</v>
       </c>
       <c r="D41" s="40"/>
-      <c r="E41" s="50" t="s">
+      <c r="E41" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="F41" s="51"/>
+      <c r="F41" s="52"/>
       <c r="G41"/>
     </row>
     <row r="42" spans="1:7" ht="45" customHeight="1">
@@ -1995,10 +2014,10 @@
       <c r="D42" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="E42" s="50" t="s">
+      <c r="E42" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="F42" s="52"/>
+      <c r="F42" s="53"/>
       <c r="G42"/>
     </row>
     <row r="43" spans="1:7" ht="45">
@@ -2015,82 +2034,84 @@
       <c r="D43" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="E43" s="50" t="s">
+      <c r="E43" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="F43" s="52"/>
+      <c r="F43" s="53"/>
       <c r="G43"/>
     </row>
-    <row r="44" spans="1:7" ht="15">
+    <row r="44" spans="1:7" ht="45">
       <c r="A44" s="38">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B44" s="39" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="C44" s="40" t="s">
-        <v>63</v>
-      </c>
-      <c r="D44" s="40"/>
-      <c r="E44" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="F44" s="52"/>
+        <v>85</v>
+      </c>
+      <c r="D44" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="E44" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="F44" s="53"/>
       <c r="G44"/>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" ht="15">
       <c r="A45" s="38">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B45" s="44" t="s">
+      <c r="B45" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="C45" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="D45" s="40"/>
+      <c r="E45" s="51" t="s">
+        <v>62</v>
+      </c>
+      <c r="F45" s="53"/>
+      <c r="G45"/>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="38">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B46" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="C45" s="45" t="s">
+      <c r="C46" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="D45" s="45" t="s">
+      <c r="D46" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="E45" s="50" t="s">
+      <c r="E46" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="F45" s="51"/>
-      <c r="G45"/>
-    </row>
-    <row r="46" spans="1:7" ht="14" customHeight="1">
-      <c r="A46" s="21"/>
-      <c r="B46" s="22"/>
-      <c r="C46" s="43"/>
-      <c r="D46" s="43"/>
-      <c r="E46" s="54"/>
-      <c r="F46" s="55"/>
+      <c r="F46" s="52"/>
       <c r="G46"/>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" ht="14" customHeight="1">
+      <c r="A47" s="21"/>
+      <c r="B47" s="22"/>
+      <c r="C47" s="43"/>
+      <c r="D47" s="43"/>
+      <c r="E47" s="49"/>
+      <c r="F47" s="50"/>
       <c r="G47"/>
     </row>
+    <row r="48" spans="1:7">
+      <c r="G48"/>
+    </row>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E35:F35"/>
+  <mergeCells count="27">
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="B25:B26"/>
     <mergeCell ref="C25:C26"/>
@@ -2099,10 +2120,29 @@
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E45:F45"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations disablePrompts="1" count="6">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D60" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D61" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>型</formula1>
       <formula2>0</formula2>
     </dataValidation>

--- a/meta/program/BlancoValueObjectKtClassStructure.xlsx
+++ b/meta/program/BlancoValueObjectKtClassStructure.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoValueObjectKt/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4230F327-F5BE-3141-8946-58DD5D2C836E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9A7D506-D72A-2649-A014-38A46087F78A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="560" windowWidth="28300" windowHeight="17440" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
   <si>
     <t>バリューオブジェクト定義書</t>
   </si>
@@ -446,6 +446,43 @@
     <t>委譲を記憶するリストを指定します。</t>
     <rPh sb="0" eb="2">
       <t xml:space="preserve">イジョウ </t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>packageSuffix</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>パッケージ名の後ろに付加する文字列をしていします。</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">パッケージメイ </t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t xml:space="preserve">ウシロニ </t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t xml:space="preserve">フカ </t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t xml:space="preserve">モジレツ </t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>overridePackage</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>定義書で指定されたパッケージ名を上書きします。</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">テイギショ </t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t xml:space="preserve">シテイ </t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t xml:space="preserve">ウワガキシマス。 </t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -987,35 +1024,35 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1427,10 +1464,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G48"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45:F45"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1625,24 +1662,24 @@
       <c r="G18"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="56" t="s">
+      <c r="A19" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="57" t="s">
+      <c r="B19" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="58"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="54"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="56"/>
       <c r="F19"/>
       <c r="G19"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="56"/>
-      <c r="B20" s="57"/>
-      <c r="C20" s="58"/>
-      <c r="D20" s="58"/>
-      <c r="E20" s="54"/>
+      <c r="A20" s="49"/>
+      <c r="B20" s="51"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="56"/>
       <c r="F20"/>
       <c r="G20"/>
     </row>
@@ -1684,30 +1721,30 @@
       <c r="G24"/>
     </row>
     <row r="25" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A25" s="56" t="s">
+      <c r="A25" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="56" t="s">
+      <c r="B25" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="55" t="s">
+      <c r="C25" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="55" t="s">
+      <c r="D25" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="55" t="s">
+      <c r="E25" s="50" t="s">
         <v>6</v>
       </c>
       <c r="F25" s="24"/>
       <c r="G25"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="56"/>
-      <c r="B26" s="56"/>
-      <c r="C26" s="55"/>
-      <c r="D26" s="55"/>
-      <c r="E26" s="55"/>
+      <c r="A26" s="49"/>
+      <c r="B26" s="49"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
       <c r="F26" s="9"/>
       <c r="G26"/>
     </row>
@@ -1748,7 +1785,7 @@
     </row>
     <row r="29" spans="1:7" ht="15">
       <c r="A29" s="38">
-        <f t="shared" ref="A29:A46" si="0">A28+1</f>
+        <f t="shared" ref="A29:A49" si="0">A28+1</f>
         <v>3</v>
       </c>
       <c r="B29" s="39" t="s">
@@ -1796,10 +1833,10 @@
       <c r="D31" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="E31" s="51" t="s">
+      <c r="E31" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="F31" s="52"/>
+      <c r="F31" s="54"/>
       <c r="G31"/>
     </row>
     <row r="32" spans="1:7" ht="15">
@@ -1816,10 +1853,10 @@
       <c r="D32" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="E32" s="51" t="s">
+      <c r="E32" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="F32" s="52"/>
+      <c r="F32" s="54"/>
       <c r="G32"/>
     </row>
     <row r="33" spans="1:7" ht="15">
@@ -1836,10 +1873,10 @@
       <c r="D33" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="E33" s="51" t="s">
+      <c r="E33" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="F33" s="52"/>
+      <c r="F33" s="54"/>
       <c r="G33"/>
     </row>
     <row r="34" spans="1:7" ht="15">
@@ -1856,10 +1893,10 @@
       <c r="D34" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="E34" s="51" t="s">
+      <c r="E34" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="F34" s="52"/>
+      <c r="F34" s="54"/>
       <c r="G34"/>
     </row>
     <row r="35" spans="1:7" ht="15">
@@ -1876,10 +1913,10 @@
       <c r="D35" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="E35" s="51" t="s">
+      <c r="E35" s="53" t="s">
         <v>80</v>
       </c>
-      <c r="F35" s="52"/>
+      <c r="F35" s="54"/>
       <c r="G35"/>
     </row>
     <row r="36" spans="1:7" ht="15">
@@ -1896,10 +1933,10 @@
       <c r="D36" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="E36" s="51" t="s">
+      <c r="E36" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="F36" s="52"/>
+      <c r="F36" s="54"/>
       <c r="G36"/>
     </row>
     <row r="37" spans="1:7" ht="15">
@@ -1916,10 +1953,10 @@
       <c r="D37" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="E37" s="51" t="s">
+      <c r="E37" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="F37" s="52"/>
+      <c r="F37" s="54"/>
       <c r="G37"/>
     </row>
     <row r="38" spans="1:7" ht="15">
@@ -1936,10 +1973,10 @@
       <c r="D38" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="E38" s="51" t="s">
+      <c r="E38" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="F38" s="52"/>
+      <c r="F38" s="54"/>
       <c r="G38"/>
     </row>
     <row r="39" spans="1:7" ht="15">
@@ -1956,10 +1993,10 @@
       <c r="D39" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="E39" s="51" t="s">
+      <c r="E39" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="F39" s="52"/>
+      <c r="F39" s="54"/>
       <c r="G39"/>
     </row>
     <row r="40" spans="1:7" ht="15">
@@ -1976,10 +2013,10 @@
       <c r="D40" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="E40" s="51" t="s">
+      <c r="E40" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="F40" s="52"/>
+      <c r="F40" s="54"/>
       <c r="G40"/>
     </row>
     <row r="41" spans="1:7" ht="15">
@@ -1994,10 +2031,10 @@
         <v>33</v>
       </c>
       <c r="D41" s="40"/>
-      <c r="E41" s="51" t="s">
+      <c r="E41" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="F41" s="52"/>
+      <c r="F41" s="54"/>
       <c r="G41"/>
     </row>
     <row r="42" spans="1:7" ht="45" customHeight="1">
@@ -2014,10 +2051,10 @@
       <c r="D42" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="E42" s="51" t="s">
+      <c r="E42" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="F42" s="53"/>
+      <c r="F42" s="55"/>
       <c r="G42"/>
     </row>
     <row r="43" spans="1:7" ht="45">
@@ -2034,10 +2071,10 @@
       <c r="D43" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="E43" s="51" t="s">
+      <c r="E43" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="F43" s="53"/>
+      <c r="F43" s="55"/>
       <c r="G43"/>
     </row>
     <row r="44" spans="1:7" ht="45">
@@ -2054,10 +2091,10 @@
       <c r="D44" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="E44" s="51" t="s">
+      <c r="E44" s="53" t="s">
         <v>87</v>
       </c>
-      <c r="F44" s="53"/>
+      <c r="F44" s="55"/>
       <c r="G44"/>
     </row>
     <row r="45" spans="1:7" ht="15">
@@ -2072,10 +2109,10 @@
         <v>63</v>
       </c>
       <c r="D45" s="40"/>
-      <c r="E45" s="51" t="s">
+      <c r="E45" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="F45" s="53"/>
+      <c r="F45" s="55"/>
       <c r="G45"/>
     </row>
     <row r="46" spans="1:7">
@@ -2092,34 +2129,84 @@
       <c r="D46" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="E46" s="51" t="s">
+      <c r="E46" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="F46" s="52"/>
+      <c r="F46" s="54"/>
       <c r="G46"/>
     </row>
-    <row r="47" spans="1:7" ht="14" customHeight="1">
-      <c r="A47" s="21"/>
-      <c r="B47" s="22"/>
-      <c r="C47" s="43"/>
-      <c r="D47" s="43"/>
-      <c r="E47" s="49"/>
-      <c r="F47" s="50"/>
+    <row r="47" spans="1:7" ht="15">
+      <c r="A47" s="38">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B47" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="C47" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="D47" s="45"/>
+      <c r="E47" s="53" t="s">
+        <v>89</v>
+      </c>
+      <c r="F47" s="54"/>
       <c r="G47"/>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" ht="15">
+      <c r="A48" s="38">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B48" s="44" t="s">
+        <v>90</v>
+      </c>
+      <c r="C48" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="D48" s="45"/>
+      <c r="E48" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="F48" s="54"/>
       <c r="G48"/>
     </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="38"/>
+      <c r="B49" s="44"/>
+      <c r="C49" s="40"/>
+      <c r="D49" s="45"/>
+      <c r="E49" s="53"/>
+      <c r="F49" s="54"/>
+      <c r="G49"/>
+    </row>
+    <row r="50" spans="1:7" ht="14" customHeight="1">
+      <c r="A50" s="21"/>
+      <c r="B50" s="22"/>
+      <c r="C50" s="43"/>
+      <c r="D50" s="43"/>
+      <c r="E50" s="57"/>
+      <c r="F50" s="58"/>
+      <c r="G50"/>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="G51"/>
+    </row>
   </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
+  <mergeCells count="30">
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E48:F48"/>
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="E42:F42"/>
     <mergeCell ref="E19:E20"/>
@@ -2129,20 +2216,18 @@
     <mergeCell ref="E32:F32"/>
     <mergeCell ref="E35:F35"/>
     <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations disablePrompts="1" count="6">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D61" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D64" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>型</formula1>
       <formula2>0</formula2>
     </dataValidation>

--- a/meta/program/BlancoValueObjectKtClassStructure.xlsx
+++ b/meta/program/BlancoValueObjectKtClassStructure.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoValueObjectKt/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9A7D506-D72A-2649-A014-38A46087F78A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DD8C98E-DA9E-6F44-A588-36512A4AB56C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="560" windowWidth="28300" windowHeight="17440" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="94">
   <si>
     <t>バリューオブジェクト定義書</t>
   </si>
@@ -484,6 +484,14 @@
     <rPh sb="16" eb="18">
       <t xml:space="preserve">ウワガキシマス。 </t>
     </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>blanco.valueobjectkt.valueobject.BlancoValueObjectKtExtendsStructure</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>new blanco.valueobjectkt.valueobject.BlancoValueObjectKtExtendsStructure()</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1024,35 +1032,35 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1467,7 +1475,7 @@
   <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+      <selection activeCell="E41" sqref="E41:F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1662,24 +1670,24 @@
       <c r="G18"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="49" t="s">
+      <c r="A19" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="51" t="s">
+      <c r="B19" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="52"/>
-      <c r="D19" s="52"/>
-      <c r="E19" s="56"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="54"/>
       <c r="F19"/>
       <c r="G19"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="49"/>
-      <c r="B20" s="51"/>
-      <c r="C20" s="52"/>
-      <c r="D20" s="52"/>
-      <c r="E20" s="56"/>
+      <c r="A20" s="56"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="54"/>
       <c r="F20"/>
       <c r="G20"/>
     </row>
@@ -1721,30 +1729,30 @@
       <c r="G24"/>
     </row>
     <row r="25" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A25" s="49" t="s">
+      <c r="A25" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="49" t="s">
+      <c r="B25" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="50" t="s">
+      <c r="C25" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="50" t="s">
+      <c r="D25" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="50" t="s">
+      <c r="E25" s="55" t="s">
         <v>6</v>
       </c>
       <c r="F25" s="24"/>
       <c r="G25"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="49"/>
-      <c r="B26" s="49"/>
-      <c r="C26" s="50"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="50"/>
+      <c r="A26" s="56"/>
+      <c r="B26" s="56"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="55"/>
       <c r="F26" s="9"/>
       <c r="G26"/>
     </row>
@@ -1785,7 +1793,7 @@
     </row>
     <row r="29" spans="1:7" ht="15">
       <c r="A29" s="38">
-        <f t="shared" ref="A29:A49" si="0">A28+1</f>
+        <f t="shared" ref="A29:A48" si="0">A28+1</f>
         <v>3</v>
       </c>
       <c r="B29" s="39" t="s">
@@ -1833,10 +1841,10 @@
       <c r="D31" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="E31" s="53" t="s">
+      <c r="E31" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="F31" s="54"/>
+      <c r="F31" s="52"/>
       <c r="G31"/>
     </row>
     <row r="32" spans="1:7" ht="15">
@@ -1853,10 +1861,10 @@
       <c r="D32" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="E32" s="53" t="s">
+      <c r="E32" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="F32" s="54"/>
+      <c r="F32" s="52"/>
       <c r="G32"/>
     </row>
     <row r="33" spans="1:7" ht="15">
@@ -1873,10 +1881,10 @@
       <c r="D33" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="E33" s="53" t="s">
+      <c r="E33" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="F33" s="54"/>
+      <c r="F33" s="52"/>
       <c r="G33"/>
     </row>
     <row r="34" spans="1:7" ht="15">
@@ -1893,10 +1901,10 @@
       <c r="D34" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="E34" s="53" t="s">
+      <c r="E34" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="F34" s="54"/>
+      <c r="F34" s="52"/>
       <c r="G34"/>
     </row>
     <row r="35" spans="1:7" ht="15">
@@ -1913,10 +1921,10 @@
       <c r="D35" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="E35" s="53" t="s">
+      <c r="E35" s="51" t="s">
         <v>80</v>
       </c>
-      <c r="F35" s="54"/>
+      <c r="F35" s="52"/>
       <c r="G35"/>
     </row>
     <row r="36" spans="1:7" ht="15">
@@ -1933,10 +1941,10 @@
       <c r="D36" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="E36" s="53" t="s">
+      <c r="E36" s="51" t="s">
         <v>74</v>
       </c>
-      <c r="F36" s="54"/>
+      <c r="F36" s="52"/>
       <c r="G36"/>
     </row>
     <row r="37" spans="1:7" ht="15">
@@ -1953,10 +1961,10 @@
       <c r="D37" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="E37" s="53" t="s">
+      <c r="E37" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="F37" s="54"/>
+      <c r="F37" s="52"/>
       <c r="G37"/>
     </row>
     <row r="38" spans="1:7" ht="15">
@@ -1973,10 +1981,10 @@
       <c r="D38" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="E38" s="53" t="s">
+      <c r="E38" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="F38" s="54"/>
+      <c r="F38" s="52"/>
       <c r="G38"/>
     </row>
     <row r="39" spans="1:7" ht="15">
@@ -1993,10 +2001,10 @@
       <c r="D39" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="E39" s="53" t="s">
+      <c r="E39" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="F39" s="54"/>
+      <c r="F39" s="52"/>
       <c r="G39"/>
     </row>
     <row r="40" spans="1:7" ht="15">
@@ -2013,13 +2021,13 @@
       <c r="D40" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="E40" s="53" t="s">
+      <c r="E40" s="51" t="s">
         <v>68</v>
       </c>
-      <c r="F40" s="54"/>
+      <c r="F40" s="52"/>
       <c r="G40"/>
     </row>
-    <row r="41" spans="1:7" ht="15">
+    <row r="41" spans="1:7" ht="45">
       <c r="A41" s="38">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -2028,13 +2036,15 @@
         <v>50</v>
       </c>
       <c r="C41" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="D41" s="40"/>
-      <c r="E41" s="53" t="s">
+        <v>92</v>
+      </c>
+      <c r="D41" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="E41" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="F41" s="54"/>
+      <c r="F41" s="52"/>
       <c r="G41"/>
     </row>
     <row r="42" spans="1:7" ht="45" customHeight="1">
@@ -2051,10 +2061,10 @@
       <c r="D42" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="E42" s="53" t="s">
+      <c r="E42" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="F42" s="55"/>
+      <c r="F42" s="53"/>
       <c r="G42"/>
     </row>
     <row r="43" spans="1:7" ht="45">
@@ -2071,10 +2081,10 @@
       <c r="D43" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="E43" s="53" t="s">
+      <c r="E43" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="F43" s="55"/>
+      <c r="F43" s="53"/>
       <c r="G43"/>
     </row>
     <row r="44" spans="1:7" ht="45">
@@ -2091,10 +2101,10 @@
       <c r="D44" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="E44" s="53" t="s">
+      <c r="E44" s="51" t="s">
         <v>87</v>
       </c>
-      <c r="F44" s="55"/>
+      <c r="F44" s="53"/>
       <c r="G44"/>
     </row>
     <row r="45" spans="1:7" ht="15">
@@ -2109,10 +2119,10 @@
         <v>63</v>
       </c>
       <c r="D45" s="40"/>
-      <c r="E45" s="53" t="s">
+      <c r="E45" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="F45" s="55"/>
+      <c r="F45" s="53"/>
       <c r="G45"/>
     </row>
     <row r="46" spans="1:7">
@@ -2129,10 +2139,10 @@
       <c r="D46" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="E46" s="53" t="s">
+      <c r="E46" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="F46" s="54"/>
+      <c r="F46" s="52"/>
       <c r="G46"/>
     </row>
     <row r="47" spans="1:7" ht="15">
@@ -2147,10 +2157,10 @@
         <v>63</v>
       </c>
       <c r="D47" s="45"/>
-      <c r="E47" s="53" t="s">
+      <c r="E47" s="51" t="s">
         <v>89</v>
       </c>
-      <c r="F47" s="54"/>
+      <c r="F47" s="52"/>
       <c r="G47"/>
     </row>
     <row r="48" spans="1:7" ht="15">
@@ -2165,10 +2175,10 @@
         <v>63</v>
       </c>
       <c r="D48" s="45"/>
-      <c r="E48" s="53" t="s">
+      <c r="E48" s="51" t="s">
         <v>91</v>
       </c>
-      <c r="F48" s="54"/>
+      <c r="F48" s="52"/>
       <c r="G48"/>
     </row>
     <row r="49" spans="1:7">
@@ -2176,8 +2186,8 @@
       <c r="B49" s="44"/>
       <c r="C49" s="40"/>
       <c r="D49" s="45"/>
-      <c r="E49" s="53"/>
-      <c r="F49" s="54"/>
+      <c r="E49" s="51"/>
+      <c r="F49" s="52"/>
       <c r="G49"/>
     </row>
     <row r="50" spans="1:7" ht="14" customHeight="1">
@@ -2185,8 +2195,8 @@
       <c r="B50" s="22"/>
       <c r="C50" s="43"/>
       <c r="D50" s="43"/>
-      <c r="E50" s="57"/>
-      <c r="F50" s="58"/>
+      <c r="E50" s="49"/>
+      <c r="F50" s="50"/>
       <c r="G50"/>
     </row>
     <row r="51" spans="1:7">
@@ -2194,6 +2204,23 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E43:F43"/>
     <mergeCell ref="E50:F50"/>
     <mergeCell ref="E34:F34"/>
     <mergeCell ref="E37:F37"/>
@@ -2207,23 +2234,6 @@
     <mergeCell ref="E47:F47"/>
     <mergeCell ref="E46:F46"/>
     <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations disablePrompts="1" count="6">

--- a/meta/program/BlancoValueObjectKtClassStructure.xlsx
+++ b/meta/program/BlancoValueObjectKtClassStructure.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoValueObjectKt/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DD8C98E-DA9E-6F44-A588-36512A4AB56C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CC38BF0-A929-1148-9CB2-06B229FEEAF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="560" windowWidth="28300" windowHeight="17440" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14540" yWindow="3820" windowWidth="28300" windowHeight="17440" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="valueObject" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
     <definedName name="項目型">#REF!</definedName>
     <definedName name="必須">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="96">
   <si>
     <t>バリューオブジェクト定義書</t>
   </si>
@@ -492,6 +492,20 @@
   </si>
   <si>
     <t>new blanco.valueobjectkt.valueobject.BlancoValueObjectKtExtendsStructure()</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>enumeration</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>列挙型として定義します。</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">レッキョガタ </t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t xml:space="preserve">テイギ </t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1032,35 +1046,35 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1472,10 +1486,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41:F41"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43:F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1670,24 +1684,24 @@
       <c r="G18"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="56" t="s">
+      <c r="A19" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="57" t="s">
+      <c r="B19" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="58"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="54"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="56"/>
       <c r="F19"/>
       <c r="G19"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="56"/>
-      <c r="B20" s="57"/>
-      <c r="C20" s="58"/>
-      <c r="D20" s="58"/>
-      <c r="E20" s="54"/>
+      <c r="A20" s="49"/>
+      <c r="B20" s="51"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="56"/>
       <c r="F20"/>
       <c r="G20"/>
     </row>
@@ -1729,30 +1743,30 @@
       <c r="G24"/>
     </row>
     <row r="25" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A25" s="56" t="s">
+      <c r="A25" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="56" t="s">
+      <c r="B25" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="55" t="s">
+      <c r="C25" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="55" t="s">
+      <c r="D25" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="55" t="s">
+      <c r="E25" s="50" t="s">
         <v>6</v>
       </c>
       <c r="F25" s="24"/>
       <c r="G25"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="56"/>
-      <c r="B26" s="56"/>
-      <c r="C26" s="55"/>
-      <c r="D26" s="55"/>
-      <c r="E26" s="55"/>
+      <c r="A26" s="49"/>
+      <c r="B26" s="49"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
       <c r="F26" s="9"/>
       <c r="G26"/>
     </row>
@@ -1793,7 +1807,7 @@
     </row>
     <row r="29" spans="1:7" ht="15">
       <c r="A29" s="38">
-        <f t="shared" ref="A29:A48" si="0">A28+1</f>
+        <f t="shared" ref="A29:A49" si="0">A28+1</f>
         <v>3</v>
       </c>
       <c r="B29" s="39" t="s">
@@ -1841,10 +1855,10 @@
       <c r="D31" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="E31" s="51" t="s">
+      <c r="E31" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="F31" s="52"/>
+      <c r="F31" s="54"/>
       <c r="G31"/>
     </row>
     <row r="32" spans="1:7" ht="15">
@@ -1861,10 +1875,10 @@
       <c r="D32" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="E32" s="51" t="s">
+      <c r="E32" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="F32" s="52"/>
+      <c r="F32" s="54"/>
       <c r="G32"/>
     </row>
     <row r="33" spans="1:7" ht="15">
@@ -1881,10 +1895,10 @@
       <c r="D33" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="E33" s="51" t="s">
+      <c r="E33" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="F33" s="52"/>
+      <c r="F33" s="54"/>
       <c r="G33"/>
     </row>
     <row r="34" spans="1:7" ht="15">
@@ -1901,10 +1915,10 @@
       <c r="D34" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="E34" s="51" t="s">
+      <c r="E34" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="F34" s="52"/>
+      <c r="F34" s="54"/>
       <c r="G34"/>
     </row>
     <row r="35" spans="1:7" ht="15">
@@ -1921,10 +1935,10 @@
       <c r="D35" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="E35" s="51" t="s">
+      <c r="E35" s="53" t="s">
         <v>80</v>
       </c>
-      <c r="F35" s="52"/>
+      <c r="F35" s="54"/>
       <c r="G35"/>
     </row>
     <row r="36" spans="1:7" ht="15">
@@ -1941,10 +1955,10 @@
       <c r="D36" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="E36" s="51" t="s">
+      <c r="E36" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="F36" s="52"/>
+      <c r="F36" s="54"/>
       <c r="G36"/>
     </row>
     <row r="37" spans="1:7" ht="15">
@@ -1961,10 +1975,10 @@
       <c r="D37" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="E37" s="51" t="s">
+      <c r="E37" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="F37" s="52"/>
+      <c r="F37" s="54"/>
       <c r="G37"/>
     </row>
     <row r="38" spans="1:7" ht="15">
@@ -1981,10 +1995,10 @@
       <c r="D38" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="E38" s="51" t="s">
+      <c r="E38" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="F38" s="52"/>
+      <c r="F38" s="54"/>
       <c r="G38"/>
     </row>
     <row r="39" spans="1:7" ht="15">
@@ -2001,16 +2015,16 @@
       <c r="D39" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="E39" s="51" t="s">
+      <c r="E39" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="F39" s="52"/>
+      <c r="F39" s="54"/>
       <c r="G39"/>
     </row>
     <row r="40" spans="1:7" ht="15">
       <c r="A40" s="38">
-        <f t="shared" si="0"/>
-        <v>14</v>
+        <f>A38+1</f>
+        <v>13</v>
       </c>
       <c r="B40" s="39" t="s">
         <v>49</v>
@@ -2021,189 +2035,232 @@
       <c r="D40" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="E40" s="51" t="s">
+      <c r="E40" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="F40" s="52"/>
+      <c r="F40" s="54"/>
       <c r="G40"/>
     </row>
-    <row r="41" spans="1:7" ht="45">
+    <row r="41" spans="1:7" ht="15">
       <c r="A41" s="38">
+        <f>A39+1</f>
+        <v>14</v>
+      </c>
+      <c r="B41" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="C41" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="D41" s="40" t="b">
+        <v>0</v>
+      </c>
+      <c r="E41" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="F41" s="54"/>
+      <c r="G41"/>
+    </row>
+    <row r="42" spans="1:7" ht="45">
+      <c r="A42" s="38">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B41" s="39" t="s">
+      <c r="B42" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="C41" s="40" t="s">
+      <c r="C42" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="D41" s="40" t="s">
+      <c r="D42" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="E41" s="51" t="s">
+      <c r="E42" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="F41" s="52"/>
-      <c r="G41"/>
-    </row>
-    <row r="42" spans="1:7" ht="45" customHeight="1">
-      <c r="A42" s="38">
+      <c r="F42" s="54"/>
+      <c r="G42"/>
+    </row>
+    <row r="43" spans="1:7" ht="45" customHeight="1">
+      <c r="A43" s="38">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B42" s="39" t="s">
+      <c r="B43" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="C42" s="40" t="s">
+      <c r="C43" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="D42" s="40" t="s">
+      <c r="D43" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="E42" s="51" t="s">
+      <c r="E43" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="F42" s="53"/>
-      <c r="G42"/>
-    </row>
-    <row r="43" spans="1:7" ht="45">
-      <c r="A43" s="38">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B43" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="C43" s="40" t="s">
-        <v>71</v>
-      </c>
-      <c r="D43" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="E43" s="51" t="s">
-        <v>55</v>
-      </c>
-      <c r="F43" s="53"/>
+      <c r="F43" s="55"/>
       <c r="G43"/>
     </row>
     <row r="44" spans="1:7" ht="45">
       <c r="A44" s="38">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B44" s="39" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="C44" s="40" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="D44" s="40" t="s">
-        <v>86</v>
-      </c>
-      <c r="E44" s="51" t="s">
-        <v>87</v>
-      </c>
-      <c r="F44" s="53"/>
+        <v>72</v>
+      </c>
+      <c r="E44" s="53" t="s">
+        <v>55</v>
+      </c>
+      <c r="F44" s="55"/>
       <c r="G44"/>
     </row>
-    <row r="45" spans="1:7" ht="15">
+    <row r="45" spans="1:7" ht="45">
       <c r="A45" s="38">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B45" s="39" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="C45" s="40" t="s">
-        <v>63</v>
-      </c>
-      <c r="D45" s="40"/>
-      <c r="E45" s="51" t="s">
-        <v>62</v>
-      </c>
-      <c r="F45" s="53"/>
+        <v>85</v>
+      </c>
+      <c r="D45" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="E45" s="53" t="s">
+        <v>87</v>
+      </c>
+      <c r="F45" s="55"/>
       <c r="G45"/>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" ht="15">
       <c r="A46" s="38">
         <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="B46" s="44" t="s">
-        <v>75</v>
-      </c>
-      <c r="C46" s="45" t="s">
-        <v>76</v>
-      </c>
-      <c r="D46" s="45" t="s">
-        <v>77</v>
-      </c>
-      <c r="E46" s="51" t="s">
-        <v>78</v>
-      </c>
-      <c r="F46" s="52"/>
+        <v>19</v>
+      </c>
+      <c r="B46" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="C46" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="D46" s="40"/>
+      <c r="E46" s="53" t="s">
+        <v>62</v>
+      </c>
+      <c r="F46" s="55"/>
       <c r="G46"/>
     </row>
-    <row r="47" spans="1:7" ht="15">
+    <row r="47" spans="1:7">
       <c r="A47" s="38">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B47" s="44" t="s">
-        <v>88</v>
-      </c>
-      <c r="C47" s="40" t="s">
-        <v>63</v>
-      </c>
-      <c r="D47" s="45"/>
-      <c r="E47" s="51" t="s">
-        <v>89</v>
-      </c>
-      <c r="F47" s="52"/>
+        <v>75</v>
+      </c>
+      <c r="C47" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="D47" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="E47" s="53" t="s">
+        <v>78</v>
+      </c>
+      <c r="F47" s="54"/>
       <c r="G47"/>
     </row>
     <row r="48" spans="1:7" ht="15">
       <c r="A48" s="38">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B48" s="44" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C48" s="40" t="s">
         <v>63</v>
       </c>
       <c r="D48" s="45"/>
-      <c r="E48" s="51" t="s">
+      <c r="E48" s="53" t="s">
+        <v>89</v>
+      </c>
+      <c r="F48" s="54"/>
+      <c r="G48"/>
+    </row>
+    <row r="49" spans="1:7" ht="15">
+      <c r="A49" s="38">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B49" s="44" t="s">
+        <v>90</v>
+      </c>
+      <c r="C49" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="D49" s="45"/>
+      <c r="E49" s="53" t="s">
         <v>91</v>
       </c>
-      <c r="F48" s="52"/>
-      <c r="G48"/>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="A49" s="38"/>
-      <c r="B49" s="44"/>
-      <c r="C49" s="40"/>
-      <c r="D49" s="45"/>
-      <c r="E49" s="51"/>
-      <c r="F49" s="52"/>
+      <c r="F49" s="54"/>
       <c r="G49"/>
     </row>
-    <row r="50" spans="1:7" ht="14" customHeight="1">
-      <c r="A50" s="21"/>
-      <c r="B50" s="22"/>
-      <c r="C50" s="43"/>
-      <c r="D50" s="43"/>
-      <c r="E50" s="49"/>
-      <c r="F50" s="50"/>
+    <row r="50" spans="1:7">
+      <c r="A50" s="38"/>
+      <c r="B50" s="44"/>
+      <c r="C50" s="40"/>
+      <c r="D50" s="45"/>
+      <c r="E50" s="53"/>
+      <c r="F50" s="54"/>
       <c r="G50"/>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" ht="14" customHeight="1">
+      <c r="A51" s="21"/>
+      <c r="B51" s="22"/>
+      <c r="C51" s="43"/>
+      <c r="D51" s="43"/>
+      <c r="E51" s="57"/>
+      <c r="F51" s="58"/>
       <c r="G51"/>
     </row>
+    <row r="52" spans="1:7">
+      <c r="G52"/>
+    </row>
   </sheetData>
-  <mergeCells count="30">
+  <mergeCells count="31">
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E44:F44"/>
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="B25:B26"/>
     <mergeCell ref="C25:C26"/>
@@ -2212,32 +2269,10 @@
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E48:F48"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations disablePrompts="1" count="6">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D64" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D65" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>型</formula1>
       <formula2>0</formula2>
     </dataValidation>

--- a/meta/program/BlancoValueObjectKtClassStructure.xlsx
+++ b/meta/program/BlancoValueObjectKtClassStructure.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoValueObjectKt/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CC38BF0-A929-1148-9CB2-06B229FEEAF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5602D894-BCB2-AD4D-8EEE-33D2952C9973}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14540" yWindow="3820" windowWidth="28300" windowHeight="17440" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
     <definedName name="項目型">#REF!</definedName>
     <definedName name="必須">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="98">
   <si>
     <t>バリューオブジェクト定義書</t>
   </si>
@@ -506,6 +506,14 @@
     <rPh sb="6" eb="8">
       <t xml:space="preserve">テイギ </t>
     </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>jsonCreator</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>primary constructor に @JsonCreator を指定する。コンストラクタ引数には @JsonProperty を自動付与する（別名優先）</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -918,16 +926,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1012,7 +1019,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1046,35 +1052,35 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1486,10 +1492,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43:F43"/>
+      <selection activeCell="E51" sqref="E51:F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1507,7 +1513,7 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="26" t="s">
         <v>29</v>
       </c>
       <c r="G1"/>
@@ -1537,50 +1543,50 @@
       <c r="G5"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="16" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="6"/>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="13"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="12"/>
       <c r="G6"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="16" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="6"/>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="13"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="12"/>
       <c r="G7"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="16" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="6"/>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="11"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="10"/>
       <c r="G8"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="31" t="s">
+      <c r="B9" s="7"/>
+      <c r="C9" s="30" t="s">
         <v>27</v>
       </c>
       <c r="D9"/>
@@ -1589,22 +1595,22 @@
       <c r="G9"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="31"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="30"/>
       <c r="D10"/>
       <c r="E10"/>
       <c r="F10"/>
       <c r="G10"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="31" t="s">
+      <c r="B11" s="7"/>
+      <c r="C11" s="30" t="s">
         <v>17</v>
       </c>
       <c r="D11"/>
@@ -1613,11 +1619,11 @@
       <c r="G11"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="31" t="s">
+      <c r="B12" s="7"/>
+      <c r="C12" s="30" t="s">
         <v>17</v>
       </c>
       <c r="D12"/>
@@ -1626,22 +1632,22 @@
       <c r="G12"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="31"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="30"/>
       <c r="D13"/>
       <c r="E13"/>
       <c r="F13"/>
       <c r="G13"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
+      <c r="A14"/>
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14"/>
       <c r="G14"/>
     </row>
     <row r="15" spans="1:7">
@@ -1655,603 +1661,617 @@
       <c r="G15"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="16" t="s">
         <v>4</v>
       </c>
       <c r="B16" s="6"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="11"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="10"/>
       <c r="G16"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
+      <c r="A17"/>
+      <c r="B17"/>
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17"/>
       <c r="G17"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
       <c r="E18" s="6"/>
       <c r="F18"/>
       <c r="G18"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="49" t="s">
+      <c r="A19" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="51" t="s">
+      <c r="B19" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="52"/>
-      <c r="D19" s="52"/>
-      <c r="E19" s="56"/>
+      <c r="C19" s="56"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="52"/>
       <c r="F19"/>
       <c r="G19"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="49"/>
-      <c r="B20" s="51"/>
-      <c r="C20" s="52"/>
-      <c r="D20" s="52"/>
-      <c r="E20" s="56"/>
+      <c r="A20" s="54"/>
+      <c r="B20" s="55"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="52"/>
       <c r="F20"/>
       <c r="G20"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="18"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="35"/>
+      <c r="A21" s="17"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="34"/>
       <c r="F21"/>
       <c r="G21"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="21"/>
-      <c r="B22" s="23"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="36"/>
+      <c r="A22" s="20"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="35"/>
       <c r="F22"/>
       <c r="G22"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
+      <c r="A23"/>
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23"/>
       <c r="G23"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
       <c r="F24" s="6"/>
       <c r="G24"/>
     </row>
     <row r="25" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A25" s="49" t="s">
+      <c r="A25" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="49" t="s">
+      <c r="B25" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="50" t="s">
+      <c r="C25" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="50" t="s">
+      <c r="D25" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="50" t="s">
+      <c r="E25" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="F25" s="24"/>
+      <c r="F25" s="23"/>
       <c r="G25"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="49"/>
-      <c r="B26" s="49"/>
-      <c r="C26" s="50"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="9"/>
+      <c r="A26" s="54"/>
+      <c r="B26" s="54"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="8"/>
       <c r="G26"/>
     </row>
     <row r="27" spans="1:7" ht="15">
-      <c r="A27" s="18">
+      <c r="A27" s="17">
         <v>1</v>
       </c>
-      <c r="B27" s="19" t="s">
+      <c r="B27" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C27" s="41" t="s">
+      <c r="C27" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="D27" s="41"/>
-      <c r="E27" s="20" t="s">
+      <c r="D27" s="39"/>
+      <c r="E27" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="F27" s="46"/>
+      <c r="F27" s="44"/>
       <c r="G27"/>
     </row>
     <row r="28" spans="1:7" ht="15">
-      <c r="A28" s="38">
+      <c r="A28" s="36">
         <f>A27+1</f>
         <v>2</v>
       </c>
-      <c r="B28" s="39" t="s">
+      <c r="B28" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="40" t="s">
+      <c r="C28" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="D28" s="40"/>
-      <c r="E28" s="47" t="s">
+      <c r="D28" s="38"/>
+      <c r="E28" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="F28" s="48"/>
+      <c r="F28" s="46"/>
       <c r="G28"/>
     </row>
     <row r="29" spans="1:7" ht="15">
-      <c r="A29" s="38">
-        <f t="shared" ref="A29:A49" si="0">A28+1</f>
+      <c r="A29" s="36">
+        <f t="shared" ref="A29:A50" si="0">A28+1</f>
         <v>3</v>
       </c>
-      <c r="B29" s="39" t="s">
+      <c r="B29" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="C29" s="40" t="s">
+      <c r="C29" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="D29" s="40"/>
-      <c r="E29" s="47" t="s">
+      <c r="D29" s="38"/>
+      <c r="E29" s="45" t="s">
         <v>83</v>
       </c>
-      <c r="F29" s="48"/>
+      <c r="F29" s="46"/>
       <c r="G29"/>
     </row>
     <row r="30" spans="1:7" ht="15">
-      <c r="A30" s="38">
+      <c r="A30" s="36">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B30" s="39" t="s">
+      <c r="B30" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="C30" s="40" t="s">
+      <c r="C30" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="D30" s="40"/>
-      <c r="E30" s="40" t="s">
+      <c r="D30" s="38"/>
+      <c r="E30" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="F30" s="42"/>
+      <c r="F30" s="40"/>
       <c r="G30"/>
     </row>
     <row r="31" spans="1:7" ht="26.25" customHeight="1">
-      <c r="A31" s="38">
+      <c r="A31" s="36">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B31" s="39" t="s">
+      <c r="B31" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="C31" s="40" t="s">
+      <c r="C31" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="D31" s="40" t="s">
+      <c r="D31" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="E31" s="53" t="s">
+      <c r="E31" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="F31" s="54"/>
+      <c r="F31" s="50"/>
       <c r="G31"/>
     </row>
     <row r="32" spans="1:7" ht="15">
-      <c r="A32" s="38">
+      <c r="A32" s="36">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B32" s="39" t="s">
+      <c r="B32" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="C32" s="40" t="s">
+      <c r="C32" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="D32" s="40" t="s">
+      <c r="D32" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="E32" s="53" t="s">
+      <c r="E32" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="F32" s="54"/>
+      <c r="F32" s="50"/>
       <c r="G32"/>
     </row>
     <row r="33" spans="1:7" ht="15">
-      <c r="A33" s="38">
+      <c r="A33" s="36">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B33" s="39" t="s">
+      <c r="B33" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="C33" s="40" t="s">
+      <c r="C33" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="D33" s="40" t="s">
+      <c r="D33" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="E33" s="53" t="s">
+      <c r="E33" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="F33" s="54"/>
+      <c r="F33" s="50"/>
       <c r="G33"/>
     </row>
     <row r="34" spans="1:7" ht="15">
-      <c r="A34" s="38">
+      <c r="A34" s="36">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B34" s="39" t="s">
+      <c r="B34" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="C34" s="40" t="s">
+      <c r="C34" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="D34" s="40" t="s">
+      <c r="D34" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="E34" s="53" t="s">
+      <c r="E34" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="F34" s="54"/>
+      <c r="F34" s="50"/>
       <c r="G34"/>
     </row>
     <row r="35" spans="1:7" ht="15">
-      <c r="A35" s="38">
+      <c r="A35" s="36">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B35" s="39" t="s">
+      <c r="B35" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="C35" s="40" t="s">
+      <c r="C35" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="D35" s="40" t="s">
+      <c r="D35" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="E35" s="53" t="s">
+      <c r="E35" s="49" t="s">
         <v>80</v>
       </c>
-      <c r="F35" s="54"/>
+      <c r="F35" s="50"/>
       <c r="G35"/>
     </row>
     <row r="36" spans="1:7" ht="15">
-      <c r="A36" s="38">
+      <c r="A36" s="36">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B36" s="39" t="s">
+      <c r="B36" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="C36" s="40" t="s">
+      <c r="C36" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="D36" s="40" t="s">
+      <c r="D36" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="E36" s="53" t="s">
+      <c r="E36" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="F36" s="54"/>
+      <c r="F36" s="50"/>
       <c r="G36"/>
     </row>
     <row r="37" spans="1:7" ht="15">
-      <c r="A37" s="38">
+      <c r="A37" s="36">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B37" s="39" t="s">
+      <c r="B37" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="C37" s="40" t="s">
+      <c r="C37" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="D37" s="40" t="s">
+      <c r="D37" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E37" s="53" t="s">
+      <c r="E37" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="F37" s="54"/>
+      <c r="F37" s="50"/>
       <c r="G37"/>
     </row>
     <row r="38" spans="1:7" ht="15">
-      <c r="A38" s="38">
+      <c r="A38" s="36">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B38" s="39" t="s">
+      <c r="B38" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="C38" s="40" t="s">
+      <c r="C38" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="D38" s="40" t="s">
+      <c r="D38" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="E38" s="53" t="s">
+      <c r="E38" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="F38" s="54"/>
+      <c r="F38" s="50"/>
       <c r="G38"/>
     </row>
     <row r="39" spans="1:7" ht="15">
-      <c r="A39" s="38">
+      <c r="A39" s="36">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B39" s="39" t="s">
+      <c r="B39" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="C39" s="40" t="s">
+      <c r="C39" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="D39" s="40" t="s">
+      <c r="D39" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="E39" s="53" t="s">
+      <c r="E39" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="F39" s="54"/>
+      <c r="F39" s="50"/>
       <c r="G39"/>
     </row>
     <row r="40" spans="1:7" ht="15">
-      <c r="A40" s="38">
+      <c r="A40" s="36">
         <f>A38+1</f>
         <v>13</v>
       </c>
-      <c r="B40" s="39" t="s">
+      <c r="B40" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="C40" s="40" t="s">
+      <c r="C40" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="D40" s="40" t="s">
+      <c r="D40" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="E40" s="53" t="s">
+      <c r="E40" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="F40" s="54"/>
+      <c r="F40" s="50"/>
       <c r="G40"/>
     </row>
     <row r="41" spans="1:7" ht="15">
-      <c r="A41" s="38">
+      <c r="A41" s="36">
         <f>A39+1</f>
         <v>14</v>
       </c>
-      <c r="B41" s="39" t="s">
+      <c r="B41" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="C41" s="40" t="s">
+      <c r="C41" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="D41" s="40" t="b">
+      <c r="D41" s="38" t="b">
         <v>0</v>
       </c>
-      <c r="E41" s="53" t="s">
+      <c r="E41" s="49" t="s">
         <v>95</v>
       </c>
-      <c r="F41" s="54"/>
+      <c r="F41" s="50"/>
       <c r="G41"/>
     </row>
     <row r="42" spans="1:7" ht="45">
-      <c r="A42" s="38">
+      <c r="A42" s="36">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B42" s="39" t="s">
+      <c r="B42" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="C42" s="40" t="s">
+      <c r="C42" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="D42" s="40" t="s">
+      <c r="D42" s="38" t="s">
         <v>93</v>
       </c>
-      <c r="E42" s="53" t="s">
+      <c r="E42" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="F42" s="54"/>
+      <c r="F42" s="50"/>
       <c r="G42"/>
     </row>
     <row r="43" spans="1:7" ht="45" customHeight="1">
-      <c r="A43" s="38">
+      <c r="A43" s="36">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B43" s="39" t="s">
+      <c r="B43" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="C43" s="40" t="s">
+      <c r="C43" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="D43" s="40" t="s">
+      <c r="D43" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="E43" s="53" t="s">
+      <c r="E43" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="F43" s="55"/>
+      <c r="F43" s="51"/>
       <c r="G43"/>
     </row>
     <row r="44" spans="1:7" ht="45">
-      <c r="A44" s="38">
+      <c r="A44" s="36">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B44" s="39" t="s">
+      <c r="B44" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="C44" s="40" t="s">
+      <c r="C44" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="D44" s="40" t="s">
+      <c r="D44" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="E44" s="53" t="s">
+      <c r="E44" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="F44" s="55"/>
+      <c r="F44" s="51"/>
       <c r="G44"/>
     </row>
     <row r="45" spans="1:7" ht="45">
-      <c r="A45" s="38">
+      <c r="A45" s="36">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B45" s="39" t="s">
+      <c r="B45" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="C45" s="40" t="s">
+      <c r="C45" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="D45" s="40" t="s">
+      <c r="D45" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="E45" s="53" t="s">
+      <c r="E45" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="F45" s="55"/>
+      <c r="F45" s="51"/>
       <c r="G45"/>
     </row>
     <row r="46" spans="1:7" ht="15">
-      <c r="A46" s="38">
+      <c r="A46" s="36">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B46" s="39" t="s">
+      <c r="B46" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="C46" s="40" t="s">
+      <c r="C46" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="D46" s="40"/>
-      <c r="E46" s="53" t="s">
+      <c r="D46" s="38"/>
+      <c r="E46" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="F46" s="55"/>
+      <c r="F46" s="51"/>
       <c r="G46"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="38">
+      <c r="A47" s="36">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B47" s="44" t="s">
+      <c r="B47" s="42" t="s">
         <v>75</v>
       </c>
-      <c r="C47" s="45" t="s">
+      <c r="C47" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="D47" s="45" t="s">
+      <c r="D47" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="E47" s="53" t="s">
+      <c r="E47" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="F47" s="54"/>
+      <c r="F47" s="50"/>
       <c r="G47"/>
     </row>
     <row r="48" spans="1:7" ht="15">
-      <c r="A48" s="38">
+      <c r="A48" s="36">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B48" s="44" t="s">
+      <c r="B48" s="42" t="s">
         <v>88</v>
       </c>
-      <c r="C48" s="40" t="s">
+      <c r="C48" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="D48" s="45"/>
-      <c r="E48" s="53" t="s">
+      <c r="D48" s="43"/>
+      <c r="E48" s="49" t="s">
         <v>89</v>
       </c>
-      <c r="F48" s="54"/>
+      <c r="F48" s="50"/>
       <c r="G48"/>
     </row>
     <row r="49" spans="1:7" ht="15">
-      <c r="A49" s="38">
+      <c r="A49" s="36">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B49" s="44" t="s">
+      <c r="B49" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="C49" s="40" t="s">
+      <c r="C49" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="D49" s="45"/>
-      <c r="E49" s="53" t="s">
+      <c r="D49" s="43"/>
+      <c r="E49" s="49" t="s">
         <v>91</v>
       </c>
-      <c r="F49" s="54"/>
+      <c r="F49" s="50"/>
       <c r="G49"/>
     </row>
-    <row r="50" spans="1:7">
-      <c r="A50" s="38"/>
-      <c r="B50" s="44"/>
-      <c r="C50" s="40"/>
-      <c r="D50" s="45"/>
-      <c r="E50" s="53"/>
-      <c r="F50" s="54"/>
+    <row r="50" spans="1:7" ht="15">
+      <c r="A50" s="36">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B50" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="C50" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="D50" s="43" t="b">
+        <v>0</v>
+      </c>
+      <c r="E50" s="49" t="s">
+        <v>97</v>
+      </c>
+      <c r="F50" s="50"/>
       <c r="G50"/>
     </row>
-    <row r="51" spans="1:7" ht="14" customHeight="1">
-      <c r="A51" s="21"/>
-      <c r="B51" s="22"/>
-      <c r="C51" s="43"/>
+    <row r="51" spans="1:7">
+      <c r="A51" s="36"/>
+      <c r="B51" s="42"/>
+      <c r="C51" s="38"/>
       <c r="D51" s="43"/>
-      <c r="E51" s="57"/>
-      <c r="F51" s="58"/>
+      <c r="E51" s="49"/>
+      <c r="F51" s="50"/>
       <c r="G51"/>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" ht="14" customHeight="1">
+      <c r="A52" s="20"/>
+      <c r="B52" s="21"/>
+      <c r="C52" s="41"/>
+      <c r="D52" s="41"/>
+      <c r="E52" s="47"/>
+      <c r="F52" s="48"/>
       <c r="G52"/>
     </row>
+    <row r="53" spans="1:7">
+      <c r="G53"/>
+    </row>
   </sheetData>
-  <mergeCells count="31">
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E40:F40"/>
+  <mergeCells count="32">
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="E43:F43"/>
     <mergeCell ref="E19:E20"/>
@@ -2261,18 +2281,25 @@
     <mergeCell ref="E32:F32"/>
     <mergeCell ref="E35:F35"/>
     <mergeCell ref="E44:F44"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E50:F50"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations disablePrompts="1" count="6">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D65" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D66" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>型</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -2329,54 +2356,54 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
-      <c r="J1" s="27" t="s">
+      <c r="J1" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="M1" s="27"/>
+      <c r="M1" s="26"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="30" t="s">
+      <c r="F3" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="30" t="s">
+      <c r="H3" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="30" t="s">
+      <c r="J3" s="29" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="B4" s="32"/>
-      <c r="D4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="J4" s="28"/>
+      <c r="B4" s="31"/>
+      <c r="D4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="J4" s="27"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="29" t="s">
+      <c r="F5" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="29" t="s">
+      <c r="H5" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="29" t="s">
+      <c r="J5" s="28" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="B6" s="34"/>
+      <c r="B6" s="33"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>

--- a/meta/program/BlancoValueObjectKtClassStructure.xlsx
+++ b/meta/program/BlancoValueObjectKtClassStructure.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoValueObjectKt/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5602D894-BCB2-AD4D-8EEE-33D2952C9973}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1010B70-1264-CF44-A7D5-D2409B93BC69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14540" yWindow="3820" windowWidth="28300" windowHeight="17440" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="100">
   <si>
     <t>バリューオブジェクト定義書</t>
   </si>
@@ -514,6 +514,14 @@
   </si>
   <si>
     <t>primary constructor に @JsonCreator を指定する。コンストラクタ引数には @JsonProperty を自動付与する（別名優先）</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>sealed</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>sealedクラスかどうか。</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1052,35 +1060,35 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1492,10 +1500,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G53"/>
+  <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51:F51"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37:F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1690,24 +1698,24 @@
       <c r="G18"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="54" t="s">
+      <c r="A19" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="55" t="s">
+      <c r="B19" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="56"/>
-      <c r="D19" s="56"/>
-      <c r="E19" s="52"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="54"/>
       <c r="F19"/>
       <c r="G19"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="54"/>
-      <c r="B20" s="55"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="52"/>
+      <c r="A20" s="47"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="54"/>
       <c r="F20"/>
       <c r="G20"/>
     </row>
@@ -1749,30 +1757,30 @@
       <c r="G24"/>
     </row>
     <row r="25" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A25" s="54" t="s">
+      <c r="A25" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="54" t="s">
+      <c r="B25" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="53" t="s">
+      <c r="C25" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="53" t="s">
+      <c r="D25" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="53" t="s">
+      <c r="E25" s="48" t="s">
         <v>6</v>
       </c>
       <c r="F25" s="23"/>
       <c r="G25"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="54"/>
-      <c r="B26" s="54"/>
-      <c r="C26" s="53"/>
-      <c r="D26" s="53"/>
-      <c r="E26" s="53"/>
+      <c r="A26" s="47"/>
+      <c r="B26" s="47"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="48"/>
       <c r="F26" s="8"/>
       <c r="G26"/>
     </row>
@@ -1813,7 +1821,7 @@
     </row>
     <row r="29" spans="1:7" ht="15">
       <c r="A29" s="36">
-        <f t="shared" ref="A29:A50" si="0">A28+1</f>
+        <f t="shared" ref="A29:A51" si="0">A28+1</f>
         <v>3</v>
       </c>
       <c r="B29" s="37" t="s">
@@ -1861,10 +1869,10 @@
       <c r="D31" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="E31" s="49" t="s">
+      <c r="E31" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="F31" s="50"/>
+      <c r="F31" s="52"/>
       <c r="G31"/>
     </row>
     <row r="32" spans="1:7" ht="15">
@@ -1881,10 +1889,10 @@
       <c r="D32" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="E32" s="49" t="s">
+      <c r="E32" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="F32" s="50"/>
+      <c r="F32" s="52"/>
       <c r="G32"/>
     </row>
     <row r="33" spans="1:7" ht="15">
@@ -1901,10 +1909,10 @@
       <c r="D33" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="E33" s="49" t="s">
+      <c r="E33" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="F33" s="50"/>
+      <c r="F33" s="52"/>
       <c r="G33"/>
     </row>
     <row r="34" spans="1:7" ht="15">
@@ -1921,10 +1929,10 @@
       <c r="D34" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="E34" s="49" t="s">
+      <c r="E34" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="F34" s="50"/>
+      <c r="F34" s="52"/>
       <c r="G34"/>
     </row>
     <row r="35" spans="1:7" ht="15">
@@ -1941,10 +1949,10 @@
       <c r="D35" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="E35" s="49" t="s">
+      <c r="E35" s="51" t="s">
         <v>80</v>
       </c>
-      <c r="F35" s="50"/>
+      <c r="F35" s="52"/>
       <c r="G35"/>
     </row>
     <row r="36" spans="1:7" ht="15">
@@ -1953,7 +1961,7 @@
         <v>10</v>
       </c>
       <c r="B36" s="37" t="s">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="C36" s="38" t="s">
         <v>81</v>
@@ -1961,10 +1969,10 @@
       <c r="D36" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="E36" s="49" t="s">
-        <v>74</v>
-      </c>
-      <c r="F36" s="50"/>
+      <c r="E36" s="51" t="s">
+        <v>99</v>
+      </c>
+      <c r="F36" s="52"/>
       <c r="G36"/>
     </row>
     <row r="37" spans="1:7" ht="15">
@@ -1973,18 +1981,18 @@
         <v>11</v>
       </c>
       <c r="B37" s="37" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="C37" s="38" t="s">
         <v>81</v>
       </c>
       <c r="D37" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="E37" s="49" t="s">
-        <v>43</v>
-      </c>
-      <c r="F37" s="50"/>
+        <v>45</v>
+      </c>
+      <c r="E37" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="F37" s="52"/>
       <c r="G37"/>
     </row>
     <row r="38" spans="1:7" ht="15">
@@ -1993,18 +2001,18 @@
         <v>12</v>
       </c>
       <c r="B38" s="37" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C38" s="38" t="s">
         <v>81</v>
       </c>
       <c r="D38" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="E38" s="49" t="s">
-        <v>46</v>
-      </c>
-      <c r="F38" s="50"/>
+        <v>42</v>
+      </c>
+      <c r="E38" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" s="52"/>
       <c r="G38"/>
     </row>
     <row r="39" spans="1:7" ht="15">
@@ -2013,7 +2021,7 @@
         <v>13</v>
       </c>
       <c r="B39" s="37" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C39" s="38" t="s">
         <v>81</v>
@@ -2021,19 +2029,19 @@
       <c r="D39" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="E39" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="F39" s="50"/>
+      <c r="E39" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="F39" s="52"/>
       <c r="G39"/>
     </row>
     <row r="40" spans="1:7" ht="15">
       <c r="A40" s="36">
-        <f>A38+1</f>
-        <v>13</v>
+        <f t="shared" si="0"/>
+        <v>14</v>
       </c>
       <c r="B40" s="37" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C40" s="38" t="s">
         <v>81</v>
@@ -2041,229 +2049,274 @@
       <c r="D40" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="E40" s="49" t="s">
-        <v>68</v>
-      </c>
-      <c r="F40" s="50"/>
+      <c r="E40" s="51" t="s">
+        <v>48</v>
+      </c>
+      <c r="F40" s="52"/>
       <c r="G40"/>
     </row>
     <row r="41" spans="1:7" ht="15">
       <c r="A41" s="36">
-        <f>A39+1</f>
-        <v>14</v>
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
       <c r="B41" s="37" t="s">
-        <v>94</v>
+        <v>49</v>
       </c>
       <c r="C41" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="D41" s="38" t="b">
-        <v>0</v>
-      </c>
-      <c r="E41" s="49" t="s">
-        <v>95</v>
-      </c>
-      <c r="F41" s="50"/>
+      <c r="D41" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="E41" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="F41" s="52"/>
       <c r="G41"/>
     </row>
-    <row r="42" spans="1:7" ht="45">
+    <row r="42" spans="1:7" ht="15">
       <c r="A42" s="36">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B42" s="37" t="s">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="C42" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="D42" s="38" t="s">
-        <v>93</v>
-      </c>
-      <c r="E42" s="49" t="s">
-        <v>51</v>
-      </c>
-      <c r="F42" s="50"/>
+        <v>81</v>
+      </c>
+      <c r="D42" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="E42" s="51" t="s">
+        <v>95</v>
+      </c>
+      <c r="F42" s="52"/>
       <c r="G42"/>
     </row>
-    <row r="43" spans="1:7" ht="45" customHeight="1">
+    <row r="43" spans="1:7" ht="45">
       <c r="A43" s="36">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B43" s="37" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C43" s="38" t="s">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="D43" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="E43" s="49" t="s">
-        <v>53</v>
-      </c>
-      <c r="F43" s="51"/>
+        <v>93</v>
+      </c>
+      <c r="E43" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="F43" s="52"/>
       <c r="G43"/>
     </row>
-    <row r="44" spans="1:7" ht="45">
+    <row r="44" spans="1:7" ht="45" customHeight="1">
       <c r="A44" s="36">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B44" s="37" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C44" s="38" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="D44" s="38" t="s">
-        <v>72</v>
-      </c>
-      <c r="E44" s="49" t="s">
-        <v>55</v>
-      </c>
-      <c r="F44" s="51"/>
+        <v>57</v>
+      </c>
+      <c r="E44" s="51" t="s">
+        <v>53</v>
+      </c>
+      <c r="F44" s="53"/>
       <c r="G44"/>
     </row>
     <row r="45" spans="1:7" ht="45">
       <c r="A45" s="36">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B45" s="37" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="C45" s="38" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="D45" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="E45" s="49" t="s">
-        <v>87</v>
-      </c>
-      <c r="F45" s="51"/>
+        <v>72</v>
+      </c>
+      <c r="E45" s="51" t="s">
+        <v>55</v>
+      </c>
+      <c r="F45" s="53"/>
       <c r="G45"/>
     </row>
-    <row r="46" spans="1:7" ht="15">
+    <row r="46" spans="1:7" ht="45">
       <c r="A46" s="36">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B46" s="37" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="C46" s="38" t="s">
-        <v>63</v>
-      </c>
-      <c r="D46" s="38"/>
-      <c r="E46" s="49" t="s">
-        <v>62</v>
-      </c>
-      <c r="F46" s="51"/>
+        <v>85</v>
+      </c>
+      <c r="D46" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="E46" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="F46" s="53"/>
       <c r="G46"/>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" ht="15">
       <c r="A47" s="36">
         <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="B47" s="42" t="s">
-        <v>75</v>
-      </c>
-      <c r="C47" s="43" t="s">
-        <v>76</v>
-      </c>
-      <c r="D47" s="43" t="s">
-        <v>77</v>
-      </c>
-      <c r="E47" s="49" t="s">
-        <v>78</v>
-      </c>
-      <c r="F47" s="50"/>
+        <v>21</v>
+      </c>
+      <c r="B47" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="C47" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="D47" s="38"/>
+      <c r="E47" s="51" t="s">
+        <v>62</v>
+      </c>
+      <c r="F47" s="53"/>
       <c r="G47"/>
     </row>
-    <row r="48" spans="1:7" ht="15">
+    <row r="48" spans="1:7">
       <c r="A48" s="36">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B48" s="42" t="s">
-        <v>88</v>
-      </c>
-      <c r="C48" s="38" t="s">
-        <v>63</v>
-      </c>
-      <c r="D48" s="43"/>
-      <c r="E48" s="49" t="s">
-        <v>89</v>
-      </c>
-      <c r="F48" s="50"/>
+        <v>75</v>
+      </c>
+      <c r="C48" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="D48" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="E48" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="F48" s="52"/>
       <c r="G48"/>
     </row>
     <row r="49" spans="1:7" ht="15">
       <c r="A49" s="36">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B49" s="42" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C49" s="38" t="s">
         <v>63</v>
       </c>
       <c r="D49" s="43"/>
-      <c r="E49" s="49" t="s">
-        <v>91</v>
-      </c>
-      <c r="F49" s="50"/>
+      <c r="E49" s="51" t="s">
+        <v>89</v>
+      </c>
+      <c r="F49" s="52"/>
       <c r="G49"/>
     </row>
     <row r="50" spans="1:7" ht="15">
       <c r="A50" s="36">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B50" s="42" t="s">
+        <v>90</v>
+      </c>
+      <c r="C50" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="D50" s="43"/>
+      <c r="E50" s="51" t="s">
+        <v>91</v>
+      </c>
+      <c r="F50" s="52"/>
+      <c r="G50"/>
+    </row>
+    <row r="51" spans="1:7" ht="15">
+      <c r="A51" s="36">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B51" s="42" t="s">
         <v>96</v>
       </c>
-      <c r="C50" s="38" t="s">
+      <c r="C51" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="D50" s="43" t="b">
+      <c r="D51" s="43" t="b">
         <v>0</v>
       </c>
-      <c r="E50" s="49" t="s">
+      <c r="E51" s="51" t="s">
         <v>97</v>
       </c>
-      <c r="F50" s="50"/>
-      <c r="G50"/>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="A51" s="36"/>
-      <c r="B51" s="42"/>
-      <c r="C51" s="38"/>
-      <c r="D51" s="43"/>
-      <c r="E51" s="49"/>
-      <c r="F51" s="50"/>
+      <c r="F51" s="52"/>
       <c r="G51"/>
     </row>
-    <row r="52" spans="1:7" ht="14" customHeight="1">
-      <c r="A52" s="20"/>
-      <c r="B52" s="21"/>
-      <c r="C52" s="41"/>
-      <c r="D52" s="41"/>
-      <c r="E52" s="47"/>
-      <c r="F52" s="48"/>
+    <row r="52" spans="1:7">
+      <c r="A52" s="36"/>
+      <c r="B52" s="42"/>
+      <c r="C52" s="38"/>
+      <c r="D52" s="43"/>
+      <c r="E52" s="51"/>
+      <c r="F52" s="52"/>
       <c r="G52"/>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" ht="14" customHeight="1">
+      <c r="A53" s="20"/>
+      <c r="B53" s="21"/>
+      <c r="C53" s="41"/>
+      <c r="D53" s="41"/>
+      <c r="E53" s="55"/>
+      <c r="F53" s="56"/>
       <c r="G53"/>
     </row>
+    <row r="54" spans="1:7">
+      <c r="G54"/>
+    </row>
   </sheetData>
-  <mergeCells count="32">
+  <mergeCells count="33">
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E45:F45"/>
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="B25:B26"/>
     <mergeCell ref="C25:C26"/>
@@ -2272,34 +2325,10 @@
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E50:F50"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations disablePrompts="1" count="6">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D66" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D67" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>型</formula1>
       <formula2>0</formula2>
     </dataValidation>
